--- a/dataSources/WSR/PUBLIC_WEBSITE.xlsx
+++ b/dataSources/WSR/PUBLIC_WEBSITE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27307"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 Nov 2023" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="20 Nov 2023" sheetId="5" r:id="rId3"/>
     <sheet name="27 Nov 2023" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,129 +41,192 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="72">
   <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Hours.</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Hours..</t>
+  </si>
+  <si>
+    <t>Task.</t>
+  </si>
+  <si>
+    <t>Status.</t>
+  </si>
+  <si>
+    <t>ETC.</t>
+  </si>
+  <si>
+    <t>Comments.</t>
+  </si>
+  <si>
+    <t>Task..</t>
+  </si>
+  <si>
+    <t>Status..</t>
+  </si>
+  <si>
+    <t>ETC..</t>
+  </si>
+  <si>
+    <t>Comments ..</t>
+  </si>
+  <si>
+    <t>Defect Name</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Task Name</t>
-  </si>
-  <si>
-    <t>Resources</t>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>ETC</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Adhoc Testing</t>
+  </si>
+  <si>
+    <t>Johnson Benjamin</t>
+  </si>
+  <si>
+    <t>Regression Testing</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Test case update (Select Approved Payment Instruction Template to Create New Payment Request section)</t>
+  </si>
+  <si>
+    <t>Hom page Keeps loading</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Garg Nikhil</t>
+  </si>
+  <si>
+    <t>To be Tested once fixed by Dev</t>
+  </si>
+  <si>
+    <t>Total Manual Execution</t>
+  </si>
+  <si>
+    <t>New Module Testing</t>
+  </si>
+  <si>
+    <t>Kathhir</t>
+  </si>
+  <si>
+    <t>Select Approved Payment Instruction Template to Create New Payment Request section</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Space Required</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Total Automation Execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vignesh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Test Scenarios provided by LIPI related to regression </t>
+  </si>
+  <si>
+    <t>Bug Retesting</t>
+  </si>
+  <si>
+    <t>User able to submit payment req. although user doesn’t have requestor role</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Bugs Identified</t>
+  </si>
+  <si>
+    <t>DEV bugs / changes Retesting</t>
+  </si>
+  <si>
     <t>4 new changes given by DEV team</t>
   </si>
   <si>
-    <t>Adhoc Testing</t>
-  </si>
-  <si>
-    <t>New Module Testing</t>
-  </si>
-  <si>
-    <t>Regression Testing</t>
-  </si>
-  <si>
-    <t>Bug Retesting</t>
-  </si>
-  <si>
-    <t>Johnson Benjamin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vignesh </t>
-  </si>
-  <si>
-    <t>Kathhir</t>
-  </si>
-  <si>
-    <t>Select Approved Payment Instruction Template to Create New Payment Request section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Test Scenarios provided by LIPI related to regression </t>
-  </si>
-  <si>
-    <t>DEV bugs / changes Retesting</t>
+    <t>Approve Payment Request section</t>
+  </si>
+  <si>
+    <t>Yet to Start</t>
+  </si>
+  <si>
+    <t>Development In Progress</t>
+  </si>
+  <si>
+    <t>Added Rush Request Comments showing error</t>
+  </si>
+  <si>
+    <t>Total Bugs</t>
   </si>
   <si>
     <t>Bug Created</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t> Total 11 Resolved 8 Open 3</t>
   </si>
   <si>
-    <t>Test case update (Select Approved Payment Instruction Template to Create New Payment Request section)</t>
-  </si>
-  <si>
-    <t>Approve Payment Request section</t>
-  </si>
-  <si>
-    <t>Yet to Start</t>
-  </si>
-  <si>
-    <t>Development In Progress</t>
-  </si>
-  <si>
-    <t>Defect Name</t>
-  </si>
-  <si>
-    <t>Severity</t>
-  </si>
-  <si>
-    <t>Assigned To</t>
-  </si>
-  <si>
-    <t>Hom page Keeps loading</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Garg Nikhil</t>
-  </si>
-  <si>
-    <t>To be Tested once fixed by Dev</t>
-  </si>
-  <si>
-    <t>Space Required</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>User able to submit payment req. although user doesn’t have requestor role</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Added Rush Request Comments showing error</t>
-  </si>
-  <si>
     <t>Amount – Not Support Decimal</t>
   </si>
   <si>
+    <t>Manual Test Created</t>
+  </si>
+  <si>
     <t>Error Message not Displayed</t>
   </si>
   <si>
+    <t>Total Manual Case</t>
+  </si>
+  <si>
     <t>Template Not visible in Edit Existing Grid</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
+    <t>Automation Scripts Created</t>
+  </si>
+  <si>
     <t>Template Not Visible in Approval Panel But Visible in Track/Edit Grid</t>
   </si>
   <si>
+    <t>Total Automation Scripts</t>
+  </si>
+  <si>
     <t>Delete Button in Edit Existing Payment</t>
   </si>
   <si>
@@ -192,76 +255,13 @@
   </si>
   <si>
     <t>Error message is displayed when Template is Saved from Draft</t>
-  </si>
-  <si>
-    <t>Hours.</t>
-  </si>
-  <si>
-    <t>Hours..</t>
-  </si>
-  <si>
-    <t>Task.</t>
-  </si>
-  <si>
-    <t>Status.</t>
-  </si>
-  <si>
-    <t>ETC.</t>
-  </si>
-  <si>
-    <t>Comments.</t>
-  </si>
-  <si>
-    <t>Task..</t>
-  </si>
-  <si>
-    <t>Status..</t>
-  </si>
-  <si>
-    <t>Comments ..</t>
-  </si>
-  <si>
-    <t>Total Manual Execution</t>
-  </si>
-  <si>
-    <t>Total Automation Execution</t>
-  </si>
-  <si>
-    <t>Bugs Identified</t>
-  </si>
-  <si>
-    <t>Total Bugs</t>
-  </si>
-  <si>
-    <t>Automation Scripts Created</t>
-  </si>
-  <si>
-    <t>Total Automation Scripts</t>
-  </si>
-  <si>
-    <t>Manual Test Created</t>
-  </si>
-  <si>
-    <t>Total Manual Case</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>ETC..</t>
-  </si>
-  <si>
-    <t>ETC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,559 +614,558 @@
       <selection activeCell="Q1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4">
         <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3">
         <v>45037</v>
       </c>
       <c r="J2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3">
         <v>45037</v>
       </c>
       <c r="O2" s="1"/>
       <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="Y2" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4">
         <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N3" s="3">
         <v>45037</v>
       </c>
       <c r="O3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="X3" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="1">
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4">
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="Y4" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4">
         <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="X6" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y6" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="Q7" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="X7" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Y7" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="Q8" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Y8" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="Q9" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Y9" s="1">
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="Q10" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="Q11" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="Q12" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25">
       <c r="Q13" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="Q14" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="Q15" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="Q16" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="17:22" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="17:22">
       <c r="Q17" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="17:22" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="17:22">
       <c r="Q18" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1183,559 +1182,558 @@
       <selection activeCell="Q1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4">
         <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3">
         <v>45037</v>
       </c>
       <c r="J2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3">
         <v>45037</v>
       </c>
       <c r="O2" s="1"/>
       <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="Y2" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N3" s="3">
         <v>45037</v>
       </c>
       <c r="O3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="X3" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="1">
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="Y4" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4">
         <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="1">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="X6" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y6" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="Q7" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="X7" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Y7" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="Q8" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Y8" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="Q9" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Y9" s="1">
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="Q10" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="Q11" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="Q12" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25">
       <c r="Q13" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="Q14" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="Q15" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="Q16" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="17:22" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="17:22">
       <c r="Q17" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="17:22" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="17:22">
       <c r="Q18" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1751,539 +1749,538 @@
       <selection activeCell="Q1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4">
         <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3">
         <v>45037</v>
       </c>
       <c r="J2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3">
         <v>45037</v>
       </c>
       <c r="O2" s="1"/>
       <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="Y2" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N3" s="3">
         <v>45037</v>
       </c>
       <c r="O3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="X3" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="1">
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="Y4" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4">
         <v>22</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="1">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="Q6" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="X6" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="Q7" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="X7" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Y7" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="Q8" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Y8" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="Q9" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Y9" s="1">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="Q10" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="Q11" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="Q12" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25">
       <c r="Q13" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="Q14" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="Q15" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="Q16" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="17:22" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="17:22">
       <c r="Q17" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="17:22" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="17:22">
       <c r="Q18" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2299,559 +2296,558 @@
       <selection activeCell="Q1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4">
         <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3">
         <v>45037</v>
       </c>
       <c r="J2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3">
         <v>45037</v>
       </c>
       <c r="O2" s="1"/>
       <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="Y2" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4">
         <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N3" s="3">
         <v>45037</v>
       </c>
       <c r="O3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="X3" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="1">
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4">
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="Y4" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4">
         <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="1">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="X6" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y6" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="Q7" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="X7" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Y7" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="Q8" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Y8" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="Q9" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Y9" s="1">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="Q10" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="Q11" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="Q12" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25">
       <c r="Q13" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="Q14" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="Q15" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="Q16" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="17:22" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="17:22">
       <c r="Q17" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="17:22" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="17:22">
       <c r="Q18" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2863,6 +2859,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -3033,23 +3044,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4FBF12F-E86B-490D-98D0-FC87F53B4E0E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C05D9302-3C79-499B-828E-9EE21758210A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3057,5 +3053,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C05D9302-3C79-499B-828E-9EE21758210A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4FBF12F-E86B-490D-98D0-FC87F53B4E0E}"/>
 </file>
--- a/dataSources/WSR/PUBLIC_WEBSITE.xlsx
+++ b/dataSources/WSR/PUBLIC_WEBSITE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FDF5BA-EEF9-4BFF-A295-2B0594767ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="73">
   <si>
     <t>Task Name</t>
   </si>
@@ -255,13 +255,16 @@
   </si>
   <si>
     <t>Error message is displayed when Template is Saved from Draft</t>
+  </si>
+  <si>
+    <t>Project Metrics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +277,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -328,6 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,35 +625,35 @@
       <selection activeCell="Q1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="2"/>
-    <col min="17" max="17" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="2"/>
+    <col min="17" max="17" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -760,7 +771,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -812,7 +823,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -862,7 +873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -910,7 +921,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
@@ -942,7 +953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q7" s="1" t="s">
         <v>55</v>
       </c>
@@ -964,7 +975,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q8" s="1" t="s">
         <v>57</v>
       </c>
@@ -986,7 +997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q9" s="1" t="s">
         <v>60</v>
       </c>
@@ -1010,7 +1021,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q10" s="1" t="s">
         <v>62</v>
       </c>
@@ -1026,7 +1037,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q11" s="1" t="s">
         <v>63</v>
       </c>
@@ -1044,7 +1055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q12" s="1" t="s">
         <v>64</v>
       </c>
@@ -1060,7 +1071,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1078,7 +1089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q14" s="1" t="s">
         <v>66</v>
       </c>
@@ -1096,7 +1107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1114,7 +1125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q16" s="1" t="s">
         <v>69</v>
       </c>
@@ -1132,7 +1143,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="17:22">
+    <row r="17" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q17" s="1" t="s">
         <v>70</v>
       </c>
@@ -1150,7 +1161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="17:22">
+    <row r="18" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1182,35 +1193,35 @@
       <selection activeCell="Q1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="2"/>
-    <col min="17" max="17" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="2"/>
+    <col min="17" max="17" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1328,7 +1339,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1380,7 +1391,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1430,7 +1441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1478,7 +1489,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
@@ -1510,7 +1521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1532,7 +1543,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q8" s="1" t="s">
         <v>57</v>
       </c>
@@ -1554,7 +1565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q9" s="1" t="s">
         <v>60</v>
       </c>
@@ -1578,7 +1589,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q10" s="1" t="s">
         <v>62</v>
       </c>
@@ -1594,7 +1605,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q11" s="1" t="s">
         <v>63</v>
       </c>
@@ -1612,7 +1623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q12" s="1" t="s">
         <v>64</v>
       </c>
@@ -1628,7 +1639,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1646,7 +1657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q14" s="1" t="s">
         <v>66</v>
       </c>
@@ -1664,7 +1675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1682,7 +1693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q16" s="1" t="s">
         <v>69</v>
       </c>
@@ -1700,7 +1711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="17:22">
+    <row r="17" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q17" s="1" t="s">
         <v>70</v>
       </c>
@@ -1718,7 +1729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="17:22">
+    <row r="18" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1749,35 +1760,35 @@
       <selection activeCell="Q1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="2"/>
-    <col min="17" max="17" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="2"/>
+    <col min="17" max="17" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1895,7 +1906,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1947,7 +1958,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1997,7 +2008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -2035,7 +2046,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q6" s="1" t="s">
         <v>53</v>
       </c>
@@ -2057,7 +2068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q7" s="1" t="s">
         <v>55</v>
       </c>
@@ -2079,7 +2090,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q8" s="1" t="s">
         <v>57</v>
       </c>
@@ -2101,7 +2112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q9" s="1" t="s">
         <v>60</v>
       </c>
@@ -2125,7 +2136,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q10" s="1" t="s">
         <v>62</v>
       </c>
@@ -2141,7 +2152,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q11" s="1" t="s">
         <v>63</v>
       </c>
@@ -2159,7 +2170,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q12" s="1" t="s">
         <v>64</v>
       </c>
@@ -2175,7 +2186,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q13" s="1" t="s">
         <v>65</v>
       </c>
@@ -2193,7 +2204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q14" s="1" t="s">
         <v>66</v>
       </c>
@@ -2211,7 +2222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q15" s="1" t="s">
         <v>68</v>
       </c>
@@ -2229,7 +2240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q16" s="1" t="s">
         <v>69</v>
       </c>
@@ -2247,7 +2258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="17:22">
+    <row r="17" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q17" s="1" t="s">
         <v>70</v>
       </c>
@@ -2265,7 +2276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="17:22">
+    <row r="18" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q18" s="1" t="s">
         <v>71</v>
       </c>
@@ -2293,38 +2304,38 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="A1:XFD1"/>
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="2"/>
-    <col min="17" max="17" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="2"/>
+    <col min="17" max="17" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2379,14 +2390,14 @@
       <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>18</v>
+      <c r="X1" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2442,7 +2453,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2494,7 +2505,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -2544,7 +2555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -2592,7 +2603,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
@@ -2624,7 +2635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q7" s="1" t="s">
         <v>55</v>
       </c>
@@ -2646,7 +2657,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q8" s="1" t="s">
         <v>57</v>
       </c>
@@ -2668,7 +2679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q9" s="1" t="s">
         <v>60</v>
       </c>
@@ -2692,7 +2703,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q10" s="1" t="s">
         <v>62</v>
       </c>
@@ -2708,7 +2719,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q11" s="1" t="s">
         <v>63</v>
       </c>
@@ -2726,7 +2737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q12" s="1" t="s">
         <v>64</v>
       </c>
@@ -2742,7 +2753,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q13" s="1" t="s">
         <v>65</v>
       </c>
@@ -2760,7 +2771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q14" s="1" t="s">
         <v>66</v>
       </c>
@@ -2778,7 +2789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q15" s="1" t="s">
         <v>68</v>
       </c>
@@ -2796,7 +2807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q16" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,7 +2825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="17:22">
+    <row r="17" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q17" s="1" t="s">
         <v>70</v>
       </c>
@@ -2832,7 +2843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="17:22">
+    <row r="18" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q18" s="1" t="s">
         <v>71</v>
       </c>
@@ -2859,21 +2870,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -3044,14 +3040,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C05D9302-3C79-499B-828E-9EE21758210A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4FBF12F-E86B-490D-98D0-FC87F53B4E0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
+    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997A4AC1-A910-43D2-988E-547B2DA72E3D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997A4AC1-A910-43D2-988E-547B2DA72E3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4FBF12F-E86B-490D-98D0-FC87F53B4E0E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C05D9302-3C79-499B-828E-9EE21758210A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/PUBLIC_WEBSITE.xlsx
+++ b/dataSources/WSR/PUBLIC_WEBSITE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27307"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FDF5BA-EEF9-4BFF-A295-2B0594767ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="72">
   <si>
     <t>Task Name</t>
   </si>
@@ -255,16 +255,13 @@
   </si>
   <si>
     <t>Error message is displayed when Template is Saved from Draft</t>
-  </si>
-  <si>
-    <t>Project Metrics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,13 +274,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -321,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -338,7 +328,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,35 +614,35 @@
       <selection activeCell="Q1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -771,7 +760,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -823,7 +812,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -873,7 +862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -921,7 +910,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
@@ -953,7 +942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="Q7" s="1" t="s">
         <v>55</v>
       </c>
@@ -975,7 +964,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="Q8" s="1" t="s">
         <v>57</v>
       </c>
@@ -997,7 +986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="Q9" s="1" t="s">
         <v>60</v>
       </c>
@@ -1021,7 +1010,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="Q10" s="1" t="s">
         <v>62</v>
       </c>
@@ -1037,7 +1026,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="Q11" s="1" t="s">
         <v>63</v>
       </c>
@@ -1055,7 +1044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="Q12" s="1" t="s">
         <v>64</v>
       </c>
@@ -1071,7 +1060,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25">
       <c r="Q13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1089,7 +1078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25">
       <c r="Q14" s="1" t="s">
         <v>66</v>
       </c>
@@ -1107,7 +1096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25">
       <c r="Q15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1125,7 +1114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25">
       <c r="Q16" s="1" t="s">
         <v>69</v>
       </c>
@@ -1143,7 +1132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:22">
       <c r="Q17" s="1" t="s">
         <v>70</v>
       </c>
@@ -1161,7 +1150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:22">
       <c r="Q18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1193,35 +1182,35 @@
       <selection activeCell="Q1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,7 +1328,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1391,7 +1380,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1441,7 +1430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1489,7 +1478,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
@@ -1521,7 +1510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="Q7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1543,7 +1532,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="Q8" s="1" t="s">
         <v>57</v>
       </c>
@@ -1565,7 +1554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="Q9" s="1" t="s">
         <v>60</v>
       </c>
@@ -1589,7 +1578,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="Q10" s="1" t="s">
         <v>62</v>
       </c>
@@ -1605,7 +1594,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="Q11" s="1" t="s">
         <v>63</v>
       </c>
@@ -1623,7 +1612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="Q12" s="1" t="s">
         <v>64</v>
       </c>
@@ -1639,7 +1628,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25">
       <c r="Q13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1657,7 +1646,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25">
       <c r="Q14" s="1" t="s">
         <v>66</v>
       </c>
@@ -1675,7 +1664,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25">
       <c r="Q15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1693,7 +1682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25">
       <c r="Q16" s="1" t="s">
         <v>69</v>
       </c>
@@ -1711,7 +1700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:22">
       <c r="Q17" s="1" t="s">
         <v>70</v>
       </c>
@@ -1729,7 +1718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:22">
       <c r="Q18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1760,35 +1749,35 @@
       <selection activeCell="Q1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1850,7 +1839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,7 +1895,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1958,7 +1947,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -2008,7 +1997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -2046,7 +2035,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="Q6" s="1" t="s">
         <v>53</v>
       </c>
@@ -2068,7 +2057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="Q7" s="1" t="s">
         <v>55</v>
       </c>
@@ -2090,7 +2079,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="Q8" s="1" t="s">
         <v>57</v>
       </c>
@@ -2112,7 +2101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="Q9" s="1" t="s">
         <v>60</v>
       </c>
@@ -2136,7 +2125,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="Q10" s="1" t="s">
         <v>62</v>
       </c>
@@ -2152,7 +2141,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="Q11" s="1" t="s">
         <v>63</v>
       </c>
@@ -2170,7 +2159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="Q12" s="1" t="s">
         <v>64</v>
       </c>
@@ -2186,7 +2175,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25">
       <c r="Q13" s="1" t="s">
         <v>65</v>
       </c>
@@ -2204,7 +2193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25">
       <c r="Q14" s="1" t="s">
         <v>66</v>
       </c>
@@ -2222,7 +2211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25">
       <c r="Q15" s="1" t="s">
         <v>68</v>
       </c>
@@ -2240,7 +2229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25">
       <c r="Q16" s="1" t="s">
         <v>69</v>
       </c>
@@ -2258,7 +2247,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:22">
       <c r="Q17" s="1" t="s">
         <v>70</v>
       </c>
@@ -2276,7 +2265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:22">
       <c r="Q18" s="1" t="s">
         <v>71</v>
       </c>
@@ -2304,38 +2293,38 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <selection activeCell="Q1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2390,14 +2379,14 @@
       <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="6" t="s">
-        <v>72</v>
+      <c r="X1" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2453,7 +2442,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2505,7 +2494,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -2555,7 +2544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -2603,7 +2592,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
@@ -2635,7 +2624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="Q7" s="1" t="s">
         <v>55</v>
       </c>
@@ -2657,7 +2646,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="Q8" s="1" t="s">
         <v>57</v>
       </c>
@@ -2679,7 +2668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="Q9" s="1" t="s">
         <v>60</v>
       </c>
@@ -2703,7 +2692,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="Q10" s="1" t="s">
         <v>62</v>
       </c>
@@ -2719,7 +2708,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="Q11" s="1" t="s">
         <v>63</v>
       </c>
@@ -2737,7 +2726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="Q12" s="1" t="s">
         <v>64</v>
       </c>
@@ -2753,7 +2742,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25">
       <c r="Q13" s="1" t="s">
         <v>65</v>
       </c>
@@ -2771,7 +2760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25">
       <c r="Q14" s="1" t="s">
         <v>66</v>
       </c>
@@ -2789,7 +2778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25">
       <c r="Q15" s="1" t="s">
         <v>68</v>
       </c>
@@ -2807,7 +2796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25">
       <c r="Q16" s="1" t="s">
         <v>69</v>
       </c>
@@ -2825,7 +2814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:22">
       <c r="Q17" s="1" t="s">
         <v>70</v>
       </c>
@@ -2843,7 +2832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:22">
       <c r="Q18" s="1" t="s">
         <v>71</v>
       </c>
@@ -2870,6 +2859,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -3040,53 +3044,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4FBF12F-E86B-490D-98D0-FC87F53B4E0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
-    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C05D9302-3C79-499B-828E-9EE21758210A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997A4AC1-A910-43D2-988E-547B2DA72E3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997A4AC1-A910-43D2-988E-547B2DA72E3D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C05D9302-3C79-499B-828E-9EE21758210A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4FBF12F-E86B-490D-98D0-FC87F53B4E0E}"/>
 </file>